--- a/analise_Enem.xlsx
+++ b/analise_Enem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/100dabb65b2b3457/Documentos/GitHub/Analise_Enem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{13E7F7E4-CAAE-4E28-8545-1717342D4731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{385B3286-A887-4BB3-BEA8-D58813D1E147}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{13E7F7E4-CAAE-4E28-8545-1717342D4731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9013A35-D8A4-4CF0-9C16-6F6665438465}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{43C66751-8BE9-435C-8DF0-6BA65D0AAEBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{43C66751-8BE9-435C-8DF0-6BA65D0AAEBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
@@ -496,10 +496,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -692,1060 +692,6 @@
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1811,6 +757,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1830,6 +795,182 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1856,6 +997,396 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1900,6 +1431,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1919,25 +1469,85 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2004,7 +1614,163 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2070,6 +1836,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2089,63 +1874,163 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2212,6 +2097,115 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="10"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="1"/>
@@ -2244,412 +2238,418 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial Unicode MS"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial Unicode MS"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2664,58 +2664,66 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A7D7207-FD0F-4403-ACC6-F93E4580B033}" name="Total" displayName="Total" ref="A1:B6" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A7D7207-FD0F-4403-ACC6-F93E4580B033}" name="Total" displayName="Total" ref="A1:B6" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
   <autoFilter ref="A1:B6" xr:uid="{9A7D7207-FD0F-4403-ACC6-F93E4580B033}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{885E80DD-7ED4-488D-9CED-89DFB172DFB2}" name="Ano" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{E788C68A-6014-4DA7-B83E-28C2A27B6DD4}" name="Total de Candidatos" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{885E80DD-7ED4-488D-9CED-89DFB172DFB2}" name="Ano" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{E788C68A-6014-4DA7-B83E-28C2A27B6DD4}" name="Total de Candidatos" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B23EAD8-0C22-41BC-ACA5-24E5D174D6DA}" name="Idade" displayName="Idade" ref="A1:U6" totalsRowShown="0" headerRowDxfId="99" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B23EAD8-0C22-41BC-ACA5-24E5D174D6DA}" name="Idade" displayName="Idade" ref="A1:U6" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="A1:U6" xr:uid="{7B23EAD8-0C22-41BC-ACA5-24E5D174D6DA}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{97A0FFFB-EEEF-4260-8B8E-CB259B2E13C2}" name="Ano" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{5966CADF-60AE-4049-9992-794BE3DA21F5}" name="&lt; 17" dataDxfId="120"/>
-    <tableColumn id="3" xr3:uid="{2AE526B0-A389-4190-86D0-78FB6B8C06A8}" name="17" dataDxfId="119"/>
-    <tableColumn id="4" xr3:uid="{D76065C4-55A3-48A6-A3BE-A89B7A030D64}" name="18" dataDxfId="118"/>
-    <tableColumn id="5" xr3:uid="{D00C17AE-4984-4888-ACC7-F1D677051AA9}" name="19" dataDxfId="117"/>
-    <tableColumn id="6" xr3:uid="{A4651B86-F88E-40FB-A98C-3950FA5BC4A7}" name="20" dataDxfId="116"/>
-    <tableColumn id="7" xr3:uid="{22BC3CA9-31CC-41FC-B958-ED4C4BED95A3}" name="21" dataDxfId="115"/>
-    <tableColumn id="8" xr3:uid="{2725ABD4-9DC1-410F-A3D3-7A5F5E01C0B1}" name="22" dataDxfId="114"/>
-    <tableColumn id="9" xr3:uid="{F49AAF1C-5485-40E8-B767-DD9D12015BDC}" name="23" dataDxfId="113"/>
-    <tableColumn id="10" xr3:uid="{95954F8B-CDE3-4751-905B-4F12ADE2257D}" name="24" dataDxfId="112"/>
-    <tableColumn id="11" xr3:uid="{64929BF2-76B7-48F9-994C-AACBC57D4309}" name="25" dataDxfId="111"/>
-    <tableColumn id="12" xr3:uid="{215A3209-1D8D-46B1-ADFB-6FBBD6B75C83}" name="Entre 26 e 30" dataDxfId="110"/>
-    <tableColumn id="13" xr3:uid="{83025B9D-F403-4E98-AA0C-E44B5D0E4050}" name="Entre 31 e 35" dataDxfId="109"/>
-    <tableColumn id="14" xr3:uid="{DC607A0C-9579-4A41-A5DB-1E2D53218F8C}" name="Entre 36 e 40" dataDxfId="108"/>
-    <tableColumn id="15" xr3:uid="{4E1F9CC7-6F25-4F94-8B55-0BE55EB88EC6}" name="Entre 41 e 45" dataDxfId="107"/>
-    <tableColumn id="16" xr3:uid="{01AE4BDA-7CAB-4379-A163-542E116578EB}" name="Entre 46 e 50" dataDxfId="106"/>
-    <tableColumn id="17" xr3:uid="{BCEFE9D3-2444-4C1E-9926-DEC42CE9B895}" name="Entre 51 e 55" dataDxfId="105"/>
-    <tableColumn id="18" xr3:uid="{2E73E8B3-EEDC-4DEE-8FB7-403AB8C79104}" name="Entre 56 e 60" dataDxfId="104"/>
-    <tableColumn id="19" xr3:uid="{EB33566B-DB87-4EBC-83A2-1F49AE9DCC0C}" name="Entre 61 e 65" dataDxfId="103"/>
-    <tableColumn id="20" xr3:uid="{86075A98-522E-4FA8-B67C-ADF23A13C193}" name="Entre 66 e 70" dataDxfId="102"/>
-    <tableColumn id="21" xr3:uid="{E6E2B6FF-5659-4674-9CEB-E2780A0B1698}" name="&gt; 70" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{97A0FFFB-EEEF-4260-8B8E-CB259B2E13C2}" name="Ano" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{5966CADF-60AE-4049-9992-794BE3DA21F5}" name="&lt; 17" dataDxfId="114"/>
+    <tableColumn id="3" xr3:uid="{2AE526B0-A389-4190-86D0-78FB6B8C06A8}" name="17" dataDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{D76065C4-55A3-48A6-A3BE-A89B7A030D64}" name="18" dataDxfId="112"/>
+    <tableColumn id="5" xr3:uid="{D00C17AE-4984-4888-ACC7-F1D677051AA9}" name="19" dataDxfId="111"/>
+    <tableColumn id="6" xr3:uid="{A4651B86-F88E-40FB-A98C-3950FA5BC4A7}" name="20" dataDxfId="110"/>
+    <tableColumn id="7" xr3:uid="{22BC3CA9-31CC-41FC-B958-ED4C4BED95A3}" name="21" dataDxfId="109"/>
+    <tableColumn id="8" xr3:uid="{2725ABD4-9DC1-410F-A3D3-7A5F5E01C0B1}" name="22" dataDxfId="108"/>
+    <tableColumn id="9" xr3:uid="{F49AAF1C-5485-40E8-B767-DD9D12015BDC}" name="23" dataDxfId="107"/>
+    <tableColumn id="10" xr3:uid="{95954F8B-CDE3-4751-905B-4F12ADE2257D}" name="24" dataDxfId="106"/>
+    <tableColumn id="11" xr3:uid="{64929BF2-76B7-48F9-994C-AACBC57D4309}" name="25" dataDxfId="105"/>
+    <tableColumn id="12" xr3:uid="{215A3209-1D8D-46B1-ADFB-6FBBD6B75C83}" name="Entre 26 e 30" dataDxfId="104"/>
+    <tableColumn id="13" xr3:uid="{83025B9D-F403-4E98-AA0C-E44B5D0E4050}" name="Entre 31 e 35" dataDxfId="103"/>
+    <tableColumn id="14" xr3:uid="{DC607A0C-9579-4A41-A5DB-1E2D53218F8C}" name="Entre 36 e 40" dataDxfId="102"/>
+    <tableColumn id="15" xr3:uid="{4E1F9CC7-6F25-4F94-8B55-0BE55EB88EC6}" name="Entre 41 e 45" dataDxfId="101"/>
+    <tableColumn id="16" xr3:uid="{01AE4BDA-7CAB-4379-A163-542E116578EB}" name="Entre 46 e 50" dataDxfId="100"/>
+    <tableColumn id="17" xr3:uid="{BCEFE9D3-2444-4C1E-9926-DEC42CE9B895}" name="Entre 51 e 55" dataDxfId="99"/>
+    <tableColumn id="18" xr3:uid="{2E73E8B3-EEDC-4DEE-8FB7-403AB8C79104}" name="Entre 56 e 60" dataDxfId="98"/>
+    <tableColumn id="19" xr3:uid="{EB33566B-DB87-4EBC-83A2-1F49AE9DCC0C}" name="Entre 61 e 65" dataDxfId="97"/>
+    <tableColumn id="20" xr3:uid="{86075A98-522E-4FA8-B67C-ADF23A13C193}" name="Entre 66 e 70" dataDxfId="96"/>
+    <tableColumn id="21" xr3:uid="{E6E2B6FF-5659-4674-9CEB-E2780A0B1698}" name="&gt; 70" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4E05467-20EF-4361-80F0-1BABB4DF9797}" name="Sexo" displayName="Sexo" ref="A1:E6" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D4E05467-20EF-4361-80F0-1BABB4DF9797}" name="Sexo" displayName="Sexo" ref="A1:E6" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
   <autoFilter ref="A1:E6" xr:uid="{D4E05467-20EF-4361-80F0-1BABB4DF9797}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B795BCD0-A14D-4A23-80AF-E892FFB0ECF9}" name="Ano" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{D4C140EF-DE2D-491C-94CC-752EFAE74A46}" name="Masculino" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{A145783B-3A6B-4947-B9C7-6D52632664E7}" name="Masculino %" dataDxfId="47" dataCellStyle="Porcentagem">
+    <tableColumn id="1" xr3:uid="{B795BCD0-A14D-4A23-80AF-E892FFB0ECF9}" name="Ano" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{D4C140EF-DE2D-491C-94CC-752EFAE74A46}" name="Masculino" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{A145783B-3A6B-4947-B9C7-6D52632664E7}" name="Masculino %" dataDxfId="89" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Sexo[[#This Row],[Masculino]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B0A58A0C-DD73-423A-89EB-AECF1EDB6665}" name="Feminino" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{BD424FA4-E16D-46F0-B734-D29E7D733CA8}" name="Feminino %" dataDxfId="46" dataCellStyle="Porcentagem">
+    <tableColumn id="3" xr3:uid="{B0A58A0C-DD73-423A-89EB-AECF1EDB6665}" name="Feminino" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{BD424FA4-E16D-46F0-B734-D29E7D733CA8}" name="Feminino %" dataDxfId="87" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Sexo[[#This Row],[Feminino]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2724,28 +2732,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{148BB4F3-5CC1-4272-BFCD-A4F728A5B1A0}" name="Raca" displayName="Raca" ref="A1:K6" totalsRowShown="0" headerRowDxfId="86" dataDxfId="87" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{148BB4F3-5CC1-4272-BFCD-A4F728A5B1A0}" name="Raca" displayName="Raca" ref="A1:K6" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" tableBorderDxfId="84">
   <autoFilter ref="A1:K6" xr:uid="{148BB4F3-5CC1-4272-BFCD-A4F728A5B1A0}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{E291788F-DF7E-4BCC-B002-5DBD0F0334D3}" name="Ano" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{93A87298-8CD0-4561-97B5-13B626EB4A4A}" name="Branco" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{68E4F191-FD9B-412B-A412-7D4EE3851DB4}" name="Branco %" dataDxfId="45" dataCellStyle="Porcentagem">
+    <tableColumn id="1" xr3:uid="{E291788F-DF7E-4BCC-B002-5DBD0F0334D3}" name="Ano" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{93A87298-8CD0-4561-97B5-13B626EB4A4A}" name="Branco" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{68E4F191-FD9B-412B-A412-7D4EE3851DB4}" name="Branco %" dataDxfId="81" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca[[#This Row],[Branco]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3049A574-1E10-4EE6-BA54-4EA7FA97D85F}" name="Negro" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{A52BB540-3A0B-4EE7-A04D-3F4EE5C0EBA1}" name="Negro %" dataDxfId="44" dataCellStyle="Porcentagem">
+    <tableColumn id="3" xr3:uid="{3049A574-1E10-4EE6-BA54-4EA7FA97D85F}" name="Negro" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{A52BB540-3A0B-4EE7-A04D-3F4EE5C0EBA1}" name="Negro %" dataDxfId="79" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca[[#This Row],[Negro]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E099DF98-59C9-4B1B-BDD0-50D90665F591}" name="Pardo" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{0878347B-F426-4CDA-BD73-01761A717D23}" name="Pardo %" dataDxfId="43" dataCellStyle="Porcentagem">
+    <tableColumn id="4" xr3:uid="{E099DF98-59C9-4B1B-BDD0-50D90665F591}" name="Pardo" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{0878347B-F426-4CDA-BD73-01761A717D23}" name="Pardo %" dataDxfId="77" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca[[#This Row],[Pardo]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EACAACBD-2027-40C2-B6CD-38300400E575}" name="Amarelo" dataDxfId="88"/>
-    <tableColumn id="10" xr3:uid="{84AAC733-9193-4D9A-805C-92A613004A04}" name="Amarelo %" dataDxfId="42" dataCellStyle="Porcentagem">
+    <tableColumn id="5" xr3:uid="{EACAACBD-2027-40C2-B6CD-38300400E575}" name="Amarelo" dataDxfId="76"/>
+    <tableColumn id="10" xr3:uid="{84AAC733-9193-4D9A-805C-92A613004A04}" name="Amarelo %" dataDxfId="75" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca[[#This Row],[Amarelo]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A1B85963-6305-4E34-A1D1-EFDE7C4D9762}" name="Indígena" dataDxfId="62"/>
-    <tableColumn id="11" xr3:uid="{97DF88EA-F4F2-44CF-93E1-FCDD8350E416}" name="Indígena %" dataDxfId="61" dataCellStyle="Porcentagem">
+    <tableColumn id="6" xr3:uid="{A1B85963-6305-4E34-A1D1-EFDE7C4D9762}" name="Indígena" dataDxfId="74"/>
+    <tableColumn id="11" xr3:uid="{97DF88EA-F4F2-44CF-93E1-FCDD8350E416}" name="Indígena %" dataDxfId="73" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca[[#This Row],[Indígena]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2754,24 +2762,24 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECC20172-B05B-4148-9A94-FFCCCC968185}" name="Nacionalidade" displayName="Nacionalidade" ref="A1:I6" totalsRowShown="0" headerRowDxfId="82" dataDxfId="83" tableBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ECC20172-B05B-4148-9A94-FFCCCC968185}" name="Nacionalidade" displayName="Nacionalidade" ref="A1:I6" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71" tableBorderDxfId="70">
   <autoFilter ref="A1:I6" xr:uid="{ECC20172-B05B-4148-9A94-FFCCCC968185}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C43FBDA8-E080-49A0-88DC-5055BD0EE3F5}" name="Ano" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{E958270A-5187-4AD1-AF0D-12A7711772FB}" name="Brasileiro" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{24286878-67F6-4802-BC54-A5B14AA8DF58}" name="Brasileiro %" dataDxfId="48" dataCellStyle="Porcentagem">
+    <tableColumn id="1" xr3:uid="{C43FBDA8-E080-49A0-88DC-5055BD0EE3F5}" name="Ano" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{E958270A-5187-4AD1-AF0D-12A7711772FB}" name="Brasileiro" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{24286878-67F6-4802-BC54-A5B14AA8DF58}" name="Brasileiro %" dataDxfId="67" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Nacionalidade[[#This Row],[Brasileiro]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CE1781E3-E64A-4362-B3E6-BC96E0F21678}" name="Brasileiro Naturalizado" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{451C11AC-2513-43BF-8FE9-05DE4685BF4F}" name="Brasileiro Naturalizado %" dataDxfId="51" dataCellStyle="Porcentagem">
+    <tableColumn id="3" xr3:uid="{CE1781E3-E64A-4362-B3E6-BC96E0F21678}" name="Brasileiro Naturalizado" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{451C11AC-2513-43BF-8FE9-05DE4685BF4F}" name="Brasileiro Naturalizado %" dataDxfId="65" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Nacionalidade[[#This Row],[Brasileiro Naturalizado]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B45A76BA-B71A-4EFC-AF3E-5E1867C3BBFF}" name="Estrangeiro" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{BE8EF6EC-803F-4F9D-A618-653E7025B6E5}" name="Estrangeiro %" dataDxfId="53" dataCellStyle="Porcentagem">
+    <tableColumn id="4" xr3:uid="{B45A76BA-B71A-4EFC-AF3E-5E1867C3BBFF}" name="Estrangeiro" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{BE8EF6EC-803F-4F9D-A618-653E7025B6E5}" name="Estrangeiro %" dataDxfId="63" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Nacionalidade[[#This Row],[Estrangeiro]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{4E22D0D7-892A-4BF0-BC96-D7D977B1A0FE}" name="Brasileiro nascido no Exterior" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{E6E91F51-0460-4FF4-A701-1F6A71FF2830}" name="Brasileiro nascido no Exterior %" dataDxfId="55" dataCellStyle="Porcentagem">
+    <tableColumn id="5" xr3:uid="{4E22D0D7-892A-4BF0-BC96-D7D977B1A0FE}" name="Brasileiro nascido no Exterior" dataDxfId="62"/>
+    <tableColumn id="10" xr3:uid="{E6E91F51-0460-4FF4-A701-1F6A71FF2830}" name="Brasileiro nascido no Exterior %" dataDxfId="61" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Nacionalidade[[#This Row],[Brasileiro nascido no Exterior]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2780,20 +2788,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C33596BB-8012-4EC1-AFED-6D8E806DBF89}" name="Tipo_Escola" displayName="Tipo_Escola" ref="A1:G6" totalsRowShown="0" headerRowDxfId="76" dataDxfId="77" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C33596BB-8012-4EC1-AFED-6D8E806DBF89}" name="Tipo_Escola" displayName="Tipo_Escola" ref="A1:G6" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="A1:G6" xr:uid="{C33596BB-8012-4EC1-AFED-6D8E806DBF89}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E07E57F8-A2AE-4821-A39C-40623F1D5B0E}" name="Ano" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{795CAA1A-97FA-41B7-A4E7-529F928C6414}" name="Não Informou" dataDxfId="79"/>
-    <tableColumn id="8" xr3:uid="{F4BA888C-0D75-4956-835F-04C5BB6D8ABD}" name="Não informou %" dataDxfId="41" dataCellStyle="Porcentagem">
+    <tableColumn id="1" xr3:uid="{E07E57F8-A2AE-4821-A39C-40623F1D5B0E}" name="Ano" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{795CAA1A-97FA-41B7-A4E7-529F928C6414}" name="Não Informou" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{F4BA888C-0D75-4956-835F-04C5BB6D8ABD}" name="Não informou %" dataDxfId="55" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tipo_Escola[[#This Row],[Não Informou]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E2854A19-5CAC-4E8A-8C19-BF4D6EA886EB}" name="Pública" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{54D6CEB2-6A1B-4475-BC1E-66E90A5CF59A}" name="Pública %" dataDxfId="40" dataCellStyle="Porcentagem">
+    <tableColumn id="3" xr3:uid="{E2854A19-5CAC-4E8A-8C19-BF4D6EA886EB}" name="Pública" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{54D6CEB2-6A1B-4475-BC1E-66E90A5CF59A}" name="Pública %" dataDxfId="53" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tipo_Escola[[#This Row],[Pública]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FB9676B3-B932-4C7B-9943-6B503DCB8895}" name="Particular" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{64F02135-0492-47A6-A495-B59B50F0912A}" name="Particular %" dataDxfId="63" dataCellStyle="Porcentagem">
+    <tableColumn id="4" xr3:uid="{FB9676B3-B932-4C7B-9943-6B503DCB8895}" name="Particular" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{64F02135-0492-47A6-A495-B59B50F0912A}" name="Particular %" dataDxfId="51" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tipo_Escola[[#This Row],[Particular]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2802,48 +2810,48 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{87598CAE-7FFB-493B-8710-ACA73A953D95}" name="Raca_Tipo_Escola" displayName="Raca_Tipo_Escola" ref="A1:U6" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72" tableBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{87598CAE-7FFB-493B-8710-ACA73A953D95}" name="Raca_Tipo_Escola" displayName="Raca_Tipo_Escola" ref="A1:U6" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="A1:U6" xr:uid="{87598CAE-7FFB-493B-8710-ACA73A953D95}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{F816B586-DB01-493E-863A-F5E539886245}" name="Ano" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{26E1D46B-3D4E-4A01-8B5E-F624D3D5A543}" name="Branco Pública" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{7BEC4BA7-FEF7-4A67-A534-ED5B7F8F268D}" name="Branco Pública %" dataDxfId="10" dataCellStyle="Porcentagem">
+    <tableColumn id="1" xr3:uid="{F816B586-DB01-493E-863A-F5E539886245}" name="Ano" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{26E1D46B-3D4E-4A01-8B5E-F624D3D5A543}" name="Branco Pública" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{7BEC4BA7-FEF7-4A67-A534-ED5B7F8F268D}" name="Branco Pública %" dataDxfId="45" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca_Tipo_Escola[[#This Row],[Branco Pública]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{68F2ECAD-AD7D-46A1-B8B4-75D7B77A3DAB}" name="Branco Particular" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{59972B4E-4432-4E61-BAA6-B1A61DFBD464}" name="Branco Particular %" dataDxfId="13" dataCellStyle="Porcentagem">
+    <tableColumn id="3" xr3:uid="{68F2ECAD-AD7D-46A1-B8B4-75D7B77A3DAB}" name="Branco Particular" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{59972B4E-4432-4E61-BAA6-B1A61DFBD464}" name="Branco Particular %" dataDxfId="43" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca_Tipo_Escola[[#This Row],[Branco Particular]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BDE33E08-3092-400A-85F4-8A522D789957}" name="Negro Pública" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{05A59D66-5B8B-47D6-AE41-5E23A9E60DEC}" name="Negro Pública %" dataDxfId="15" dataCellStyle="Porcentagem">
+    <tableColumn id="4" xr3:uid="{BDE33E08-3092-400A-85F4-8A522D789957}" name="Negro Pública" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{05A59D66-5B8B-47D6-AE41-5E23A9E60DEC}" name="Negro Pública %" dataDxfId="41" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca_Tipo_Escola[[#This Row],[Negro Pública]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6B45016C-C7FD-4C9D-9E9D-BD9DCBE3A0B2}" name="Negro Particular" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{40AFCB9C-B720-4A23-AF58-2D85CCEB0EEF}" name="Negro Particular %" dataDxfId="17" dataCellStyle="Porcentagem">
+    <tableColumn id="5" xr3:uid="{6B45016C-C7FD-4C9D-9E9D-BD9DCBE3A0B2}" name="Negro Particular" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{40AFCB9C-B720-4A23-AF58-2D85CCEB0EEF}" name="Negro Particular %" dataDxfId="39" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca_Tipo_Escola[[#This Row],[Negro Particular]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{87F3B37A-1674-43BF-B1C0-5064E4DA15A7}" name="Pardo Pública" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{A831052C-EB41-479C-867F-C3604735AB3E}" name="Pardo Pública %" dataDxfId="19" dataCellStyle="Porcentagem">
+    <tableColumn id="6" xr3:uid="{87F3B37A-1674-43BF-B1C0-5064E4DA15A7}" name="Pardo Pública" dataDxfId="38"/>
+    <tableColumn id="16" xr3:uid="{A831052C-EB41-479C-867F-C3604735AB3E}" name="Pardo Pública %" dataDxfId="37" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca_Tipo_Escola[[#This Row],[Pardo Pública]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{8BF28462-C68D-4EEC-AAE4-D74F5D7179AE}" name="Pardo Particular" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{3B0067DE-A766-4B00-AA09-A8D5A92118A5}" name="Pardo Particular %" dataDxfId="21" dataCellStyle="Porcentagem">
+    <tableColumn id="7" xr3:uid="{8BF28462-C68D-4EEC-AAE4-D74F5D7179AE}" name="Pardo Particular" dataDxfId="36"/>
+    <tableColumn id="17" xr3:uid="{3B0067DE-A766-4B00-AA09-A8D5A92118A5}" name="Pardo Particular %" dataDxfId="35" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca_Tipo_Escola[[#This Row],[Pardo Particular]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7510DEB4-5418-412E-872E-8830D23013F7}" name="Amarelo Pública" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{30678B44-4B08-4CBD-8075-4547A35C3E85}" name="Amarelo Pública %" dataDxfId="23" dataCellStyle="Porcentagem">
+    <tableColumn id="8" xr3:uid="{7510DEB4-5418-412E-872E-8830D23013F7}" name="Amarelo Pública" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{30678B44-4B08-4CBD-8075-4547A35C3E85}" name="Amarelo Pública %" dataDxfId="33" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca_Tipo_Escola[[#This Row],[Amarelo Pública]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{776004F7-0514-40A0-A812-D5458DB8CECC}" name="Amarelo Particular" dataDxfId="24"/>
-    <tableColumn id="19" xr3:uid="{E42F49BC-B62A-4B9F-BA7F-E757DFA4A323}" name="Amarelo Particular %" dataDxfId="25" dataCellStyle="Porcentagem">
+    <tableColumn id="9" xr3:uid="{776004F7-0514-40A0-A812-D5458DB8CECC}" name="Amarelo Particular" dataDxfId="32"/>
+    <tableColumn id="19" xr3:uid="{E42F49BC-B62A-4B9F-BA7F-E757DFA4A323}" name="Amarelo Particular %" dataDxfId="31" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca_Tipo_Escola[[#This Row],[Amarelo Particular]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{23568FDA-0F8F-4F7F-B0D5-B6E1139A5549}" name="Indígena Pública" dataDxfId="26"/>
-    <tableColumn id="20" xr3:uid="{920693F7-9D5E-4309-BAE6-8750B3620453}" name="Indígena Pública %" dataDxfId="27" dataCellStyle="Porcentagem">
+    <tableColumn id="10" xr3:uid="{23568FDA-0F8F-4F7F-B0D5-B6E1139A5549}" name="Indígena Pública" dataDxfId="30"/>
+    <tableColumn id="20" xr3:uid="{920693F7-9D5E-4309-BAE6-8750B3620453}" name="Indígena Pública %" dataDxfId="29" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca_Tipo_Escola[[#This Row],[Indígena Pública]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{478F2954-714E-4C2A-A39C-BE254C37BA89}" name="Indígena Particular" dataDxfId="28"/>
-    <tableColumn id="21" xr3:uid="{3498BEDE-C72A-4F1C-95E1-E7C39998FE5A}" name="Indígena Particular %" dataDxfId="29" dataCellStyle="Porcentagem">
+    <tableColumn id="21" xr3:uid="{3498BEDE-C72A-4F1C-95E1-E7C39998FE5A}" name="Indígena Particular %" dataDxfId="27" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Raca_Tipo_Escola[[#This Row],[Indígena Particular]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2852,28 +2860,28 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3EC94F68-3CEF-4D41-93E9-12047C4ECD09}" name="Estado" displayName="Estado" ref="A1:K28" totalsRowShown="0" headerRowDxfId="69" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3EC94F68-3CEF-4D41-93E9-12047C4ECD09}" name="Estado" displayName="Estado" ref="A1:K28" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:K28" xr:uid="{3EC94F68-3CEF-4D41-93E9-12047C4ECD09}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DF9293E0-9DC9-4B26-9E46-1210014B2FFC}" name="Estado" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{071363EC-E667-4011-AD23-39BD1D20D6B9}" name="2017" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{DA5B6F88-5426-4E2C-86CA-32C4B069B040}" name="2017%" dataDxfId="8" dataCellStyle="Porcentagem">
+    <tableColumn id="1" xr3:uid="{DF9293E0-9DC9-4B26-9E46-1210014B2FFC}" name="Estado" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{071363EC-E667-4011-AD23-39BD1D20D6B9}" name="2017" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{DA5B6F88-5426-4E2C-86CA-32C4B069B040}" name="2017%" dataDxfId="22" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Estado[[#This Row],[2017]]/6731278</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{0C58C880-6C48-4F02-B802-8C3CFE765C43}" name="2018" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{2A35451F-61F9-4FB8-9A67-82D7156585E0}" name="2018%" dataDxfId="6" dataCellStyle="Porcentagem">
+    <tableColumn id="3" xr3:uid="{0C58C880-6C48-4F02-B802-8C3CFE765C43}" name="2018" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{2A35451F-61F9-4FB8-9A67-82D7156585E0}" name="2018%" dataDxfId="20" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Estado[[#This Row],[2018]]/5513733</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CFBB1EDF-7E0B-4FAF-9876-7A4C11FAD7DD}" name="2019" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{56095979-CFD0-4EE1-BA2E-6D92EEDC42AD}" name="2019%" dataDxfId="4" dataCellStyle="Porcentagem">
+    <tableColumn id="4" xr3:uid="{CFBB1EDF-7E0B-4FAF-9876-7A4C11FAD7DD}" name="2019" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{56095979-CFD0-4EE1-BA2E-6D92EEDC42AD}" name="2019%" dataDxfId="18" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Estado[[#This Row],[2019]]/5095171</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7C21EE1-8720-4C9D-9DF6-0178B18B7EF1}" name="2020" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{B4BD0A14-CC3A-4205-BB08-D35110263C92}" name="2020%" dataDxfId="2" dataCellStyle="Porcentagem">
+    <tableColumn id="5" xr3:uid="{C7C21EE1-8720-4C9D-9DF6-0178B18B7EF1}" name="2020" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{B4BD0A14-CC3A-4205-BB08-D35110263C92}" name="2020%" dataDxfId="16" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Estado[[#This Row],[2020]]/5783109</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{DFA55246-79DB-4BF8-A120-7DCED75A4A2F}" name="2021" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{CA2CDBB5-FC30-41EF-8339-52C7D1EF5BFC}" name="2021%" dataDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="6" xr3:uid="{DFA55246-79DB-4BF8-A120-7DCED75A4A2F}" name="2021" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{CA2CDBB5-FC30-41EF-8339-52C7D1EF5BFC}" name="2021%" dataDxfId="14" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Estado[[#This Row],[2021]]/3389832</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2882,28 +2890,28 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A3B21715-26D9-40A5-A0B7-EA10B9560ACC}" name="Outros" displayName="Outros" ref="A1:K6" totalsRowShown="0" headerRowDxfId="65" dataDxfId="66" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A3B21715-26D9-40A5-A0B7-EA10B9560ACC}" name="Outros" displayName="Outros" ref="A1:K6" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:K6" xr:uid="{A3B21715-26D9-40A5-A0B7-EA10B9560ACC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BCBA7789-4C36-4405-AD82-52006EC08359}" name="Ano" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{86CC1F79-7C67-42F8-B4FF-DF491AE0B8C9}" name="Sem computador" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{518AFE2E-9EB5-4130-B6CB-4AE2C3A769D4}" name="Sem computador %" dataDxfId="30" dataCellStyle="Porcentagem">
+    <tableColumn id="1" xr3:uid="{BCBA7789-4C36-4405-AD82-52006EC08359}" name="Ano" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{86CC1F79-7C67-42F8-B4FF-DF491AE0B8C9}" name="Sem computador" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{518AFE2E-9EB5-4130-B6CB-4AE2C3A769D4}" name="Sem computador %" dataDxfId="8" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Outros[[#This Row],[Sem computador]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1FA0C142-DE4E-460D-8612-8CFD945E897D}" name="Sem acesso a internet" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{1047B25C-A0AA-4196-B5E6-FCF662107335}" name="Sem acesso a internet %" dataDxfId="33" dataCellStyle="Porcentagem">
+    <tableColumn id="3" xr3:uid="{1FA0C142-DE4E-460D-8612-8CFD945E897D}" name="Sem acesso a internet" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{1047B25C-A0AA-4196-B5E6-FCF662107335}" name="Sem acesso a internet %" dataDxfId="6" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Outros[[#This Row],[Sem acesso a internet]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4E4F315C-BD0A-477E-9706-84E3F56F0DF0}" name="Sem banheiro" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{FEFAB8E6-6E71-4FFE-BF07-9AEC57EAB330}" name="Sem banheiro %" dataDxfId="35" dataCellStyle="Porcentagem">
+    <tableColumn id="4" xr3:uid="{4E4F315C-BD0A-477E-9706-84E3F56F0DF0}" name="Sem banheiro" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{FEFAB8E6-6E71-4FFE-BF07-9AEC57EAB330}" name="Sem banheiro %" dataDxfId="4" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Outros[[#This Row],[Sem banheiro]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9AEB5543-EB00-48C3-B906-4E680541A54D}" name="Sem geladeira" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{FF65609C-F662-4E4D-B523-8BC3C04B1434}" name="Sem geladeira %" dataDxfId="37" dataCellStyle="Porcentagem">
+    <tableColumn id="5" xr3:uid="{9AEB5543-EB00-48C3-B906-4E680541A54D}" name="Sem geladeira" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{FF65609C-F662-4E4D-B523-8BC3C04B1434}" name="Sem geladeira %" dataDxfId="2" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Outros[[#This Row],[Sem geladeira]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D0000045-0DF8-41CD-A550-81D467C74A05}" name="Sem quarto" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{A47381B1-917C-47B1-A81F-FE4D1B07B873}" name="Sem quarto %" dataDxfId="39" dataCellStyle="Porcentagem">
+    <tableColumn id="6" xr3:uid="{D0000045-0DF8-41CD-A550-81D467C74A05}" name="Sem quarto" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{A47381B1-917C-47B1-A81F-FE4D1B07B873}" name="Sem quarto %" dataDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Outros[[#This Row],[Sem quarto]]/Total[[#This Row],[Total de Candidatos]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3210,7 +3218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C537502-F35F-492B-8458-DF5F336C1381}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3836,7 +3844,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4481,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2238593-FAD7-4C7D-88EE-0770407A4AAB}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/analise_Enem.xlsx
+++ b/analise_Enem.xlsx
@@ -666,7 +666,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -773,7 +773,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -805,12 +805,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3097,6 +3096,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-783F-4294-9318-E7069557192E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -3445,6 +3449,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-68B3-4F9D-BDF4-B7B4138502A1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3487,6 +3496,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-68B3-4F9D-BDF4-B7B4138502A1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3529,6 +3543,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-68B3-4F9D-BDF4-B7B4138502A1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3571,6 +3590,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-68B3-4F9D-BDF4-B7B4138502A1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3613,6 +3637,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-68B3-4F9D-BDF4-B7B4138502A1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4377,6 +4406,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DBB2-4239-941F-E39CA0AAF648}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4419,6 +4453,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DBB2-4239-941F-E39CA0AAF648}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4461,6 +4500,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DBB2-4239-941F-E39CA0AAF648}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4503,6 +4547,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DBB2-4239-941F-E39CA0AAF648}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4545,6 +4594,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DBB2-4239-941F-E39CA0AAF648}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5595,6 +5649,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F773-474D-8326-68194909EF56}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5637,6 +5696,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F773-474D-8326-68194909EF56}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5679,6 +5743,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F773-474D-8326-68194909EF56}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5721,6 +5790,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F773-474D-8326-68194909EF56}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5763,6 +5837,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F773-474D-8326-68194909EF56}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6073,6 +6152,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D9D4-442C-A884-0DF04164F53C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6115,6 +6199,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D9D4-442C-A884-0DF04164F53C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -6922,6 +7011,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9F81-4E7A-B5FB-1269AC0AD8B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6964,6 +7058,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9F81-4E7A-B5FB-1269AC0AD8B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -7006,6 +7105,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9F81-4E7A-B5FB-1269AC0AD8B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -7048,6 +7152,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9F81-4E7A-B5FB-1269AC0AD8B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -7090,6 +7199,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9F81-4E7A-B5FB-1269AC0AD8B9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -7759,6 +7873,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1CA3-4CC9-959D-2D8C09A44D8C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -7801,6 +7920,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1CA3-4CC9-959D-2D8C09A44D8C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -7843,6 +7967,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1CA3-4CC9-959D-2D8C09A44D8C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -7885,6 +8014,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1CA3-4CC9-959D-2D8C09A44D8C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strLit>
@@ -8556,6 +8690,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CC77-4639-99C2-971761F8A6DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -8598,6 +8737,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CC77-4639-99C2-971761F8A6DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -8640,6 +8784,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CC77-4639-99C2-971761F8A6DB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -17315,6 +17464,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A7D7207-FD0F-4403-ACC6-F93E4580B033}" name="Total" displayName="Total" ref="A1:B6" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
   <autoFilter ref="A1:B6" xr:uid="{9A7D7207-FD0F-4403-ACC6-F93E4580B033}"/>
@@ -17861,8 +18014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099089ED-7F2A-47A0-92D2-94AE0B6B8C38}">
   <dimension ref="B2:G215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="Q201" sqref="Q201"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="T125" sqref="T125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18173,7 +18326,7 @@
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="16">
+      <c r="B71" s="15">
         <v>2355229</v>
       </c>
       <c r="D71" s="14">
@@ -18189,7 +18342,7 @@
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="16">
+      <c r="B73" s="15">
         <v>894907</v>
       </c>
       <c r="D73" s="14">
@@ -18205,7 +18358,7 @@
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="16">
+      <c r="B75" s="15">
         <v>3154495</v>
       </c>
       <c r="D75" s="14">
@@ -18221,7 +18374,7 @@
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="16">
+      <c r="B77" s="15">
         <v>155344</v>
       </c>
       <c r="D77" s="14">
@@ -18229,7 +18382,7 @@
       </c>
     </row>
     <row r="78" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="11" t="s">
         <v>146</v>
       </c>
       <c r="D78" s="11" t="s">
@@ -18237,7 +18390,7 @@
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="16">
+      <c r="B79" s="15">
         <v>43797</v>
       </c>
       <c r="D79" s="14">
@@ -18258,7 +18411,7 @@
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="16">
+      <c r="B86" s="15">
         <v>6501506</v>
       </c>
       <c r="G86" s="14">
@@ -18274,7 +18427,7 @@
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="16">
+      <c r="B88" s="15">
         <v>202616</v>
       </c>
       <c r="G88" s="14">
@@ -18290,7 +18443,7 @@
       </c>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="16">
+      <c r="B90" s="15">
         <v>16367</v>
       </c>
       <c r="G90" s="14">
@@ -18306,7 +18459,7 @@
       </c>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="16">
+      <c r="B92" s="15">
         <v>8300</v>
       </c>
       <c r="G92" s="14">
@@ -18327,7 +18480,7 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="16">
+      <c r="B101" s="15">
         <v>4944601</v>
       </c>
       <c r="G101" s="14">
@@ -18343,7 +18496,7 @@
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="16">
+      <c r="B103" s="15">
         <v>1488632</v>
       </c>
       <c r="G103" s="14">
@@ -18351,7 +18504,7 @@
       </c>
     </row>
     <row r="104" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="11" t="s">
         <v>153</v>
       </c>
       <c r="G104" s="11" t="s">
@@ -18359,7 +18512,7 @@
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="16">
+      <c r="B105" s="15">
         <v>293449</v>
       </c>
       <c r="G105" s="14">
@@ -18377,7 +18530,7 @@
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="16">
+      <c r="B116" s="15">
         <v>500144</v>
       </c>
       <c r="D116" s="14">
@@ -18390,7 +18543,7 @@
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="16">
+      <c r="B118" s="15">
         <v>186889</v>
       </c>
       <c r="D118" s="14">
@@ -18403,7 +18556,7 @@
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="16">
+      <c r="B120" s="15">
         <v>727580</v>
       </c>
       <c r="D120" s="14">
@@ -18416,7 +18569,7 @@
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="16">
+      <c r="B122" s="15">
         <v>32505</v>
       </c>
       <c r="D122" s="14">
@@ -18429,7 +18582,7 @@
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="16">
+      <c r="B124" s="15">
         <v>11915</v>
       </c>
       <c r="D124" s="14">
@@ -18447,7 +18600,7 @@
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="16">
+      <c r="B131" s="15">
         <v>178048</v>
       </c>
       <c r="D131" s="14">
@@ -18460,7 +18613,7 @@
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="16">
+      <c r="B133" s="15">
         <v>17972</v>
       </c>
       <c r="D133" s="14">
@@ -18473,7 +18626,7 @@
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="16">
+      <c r="B135" s="15">
         <v>82230</v>
       </c>
       <c r="D135" s="14">
@@ -18486,7 +18639,7 @@
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="16">
+      <c r="B137" s="15">
         <v>7315</v>
       </c>
       <c r="D137" s="14">
@@ -18517,7 +18670,7 @@
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="16">
+      <c r="B148" s="15">
         <v>54382</v>
       </c>
       <c r="D148" s="14">
@@ -18530,7 +18683,7 @@
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="16">
+      <c r="B150" s="15">
         <v>118725</v>
       </c>
       <c r="D150" s="14">
@@ -18543,7 +18696,7 @@
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="16">
+      <c r="B152" s="15">
         <v>51405</v>
       </c>
       <c r="D152" s="14">
@@ -18556,7 +18709,7 @@
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="16">
+      <c r="B154" s="15">
         <v>165078</v>
       </c>
       <c r="D154" s="14">
@@ -18569,7 +18722,7 @@
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="16">
+      <c r="B156" s="15">
         <v>490196</v>
       </c>
       <c r="D156" s="14">
@@ -18582,7 +18735,7 @@
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="16">
+      <c r="B158" s="15">
         <v>365255</v>
       </c>
       <c r="D158" s="14">
@@ -18595,7 +18748,7 @@
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B160" s="16">
+      <c r="B160" s="15">
         <v>125257</v>
       </c>
       <c r="D160" s="14">
@@ -18603,12 +18756,12 @@
       </c>
     </row>
     <row r="161" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" s="17" t="s">
+      <c r="B161" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="16">
+      <c r="B162" s="15">
         <v>137399</v>
       </c>
       <c r="D162" s="14">
@@ -18621,7 +18774,7 @@
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="16">
+      <c r="B164" s="15">
         <v>219338</v>
       </c>
       <c r="D164" s="14">
@@ -18634,7 +18787,7 @@
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="16">
+      <c r="B166" s="15">
         <v>286078</v>
       </c>
       <c r="D166" s="14">
@@ -18647,7 +18800,7 @@
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B168" s="16">
+      <c r="B168" s="15">
         <v>126215</v>
       </c>
       <c r="D168" s="14">
@@ -18660,7 +18813,7 @@
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="16">
+      <c r="B170" s="15">
         <v>92299</v>
       </c>
       <c r="D170" s="14">
@@ -18673,7 +18826,7 @@
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B172" s="16">
+      <c r="B172" s="15">
         <v>725688</v>
       </c>
       <c r="D172" s="14">
@@ -18686,7 +18839,7 @@
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="16">
+      <c r="B174" s="15">
         <v>354590</v>
       </c>
       <c r="D174" s="14">
@@ -18699,7 +18852,7 @@
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B176" s="16">
+      <c r="B176" s="15">
         <v>189149</v>
       </c>
       <c r="D176" s="14">
@@ -18712,7 +18865,7 @@
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B178" s="16">
+      <c r="B178" s="15">
         <v>287837</v>
       </c>
       <c r="D178" s="14">
@@ -18725,7 +18878,7 @@
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B180" s="16">
+      <c r="B180" s="15">
         <v>371621</v>
       </c>
       <c r="D180" s="14">
@@ -18738,7 +18891,7 @@
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B182" s="16">
+      <c r="B182" s="15">
         <v>149153</v>
       </c>
       <c r="D182" s="14">
@@ -18751,7 +18904,7 @@
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B184" s="16">
+      <c r="B184" s="15">
         <v>440844</v>
       </c>
       <c r="D184" s="14">
@@ -18764,7 +18917,7 @@
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B186" s="16">
+      <c r="B186" s="15">
         <v>159484</v>
       </c>
       <c r="D186" s="14">
@@ -18772,12 +18925,12 @@
       </c>
     </row>
     <row r="187" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B188" s="16">
+      <c r="B188" s="15">
         <v>294591</v>
       </c>
       <c r="D188" s="14">
@@ -18790,7 +18943,7 @@
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B190" s="16">
+      <c r="B190" s="15">
         <v>80152</v>
       </c>
       <c r="D190" s="14">
@@ -18803,7 +18956,7 @@
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B192" s="16">
+      <c r="B192" s="15">
         <v>20247</v>
       </c>
       <c r="D192" s="14">
@@ -18816,7 +18969,7 @@
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="16">
+      <c r="B194" s="15">
         <v>128522</v>
       </c>
       <c r="D194" s="14">
@@ -18829,7 +18982,7 @@
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196" s="16">
+      <c r="B196" s="15">
         <v>1136873</v>
       </c>
       <c r="D196" s="14">
@@ -18842,7 +18995,7 @@
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198" s="16">
+      <c r="B198" s="15">
         <v>93285</v>
       </c>
       <c r="D198" s="14">
@@ -18855,7 +19008,7 @@
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200" s="16">
+      <c r="B200" s="15">
         <v>67615</v>
       </c>
       <c r="D200" s="14">
@@ -18873,7 +19026,7 @@
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B207" s="16">
+      <c r="B207" s="15">
         <v>2759195</v>
       </c>
       <c r="D207" s="14">
@@ -18886,7 +19039,7 @@
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B209" s="16">
+      <c r="B209" s="15">
         <v>2153436</v>
       </c>
       <c r="D209" s="14">
@@ -18899,7 +19052,7 @@
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B211" s="16">
+      <c r="B211" s="15">
         <v>73649</v>
       </c>
       <c r="D211" s="14">
@@ -18912,7 +19065,7 @@
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B213" s="16">
+      <c r="B213" s="15">
         <v>121360</v>
       </c>
       <c r="D213" s="14">
@@ -18925,7 +19078,7 @@
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B215" s="16">
+      <c r="B215" s="15">
         <v>63988</v>
       </c>
       <c r="D215" s="14">
